--- a/data/trans_orig/P57_R2-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P57_R2-Estudios-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>177326</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>154711</v>
+        <v>152628</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>201790</v>
+        <v>200118</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2357335922515341</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2056691454292489</v>
+        <v>0.2029002829302079</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2682545344430665</v>
+        <v>0.2660327306192018</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>163</v>
@@ -763,19 +763,19 @@
         <v>178321</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>155075</v>
+        <v>153866</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>203488</v>
+        <v>203270</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1799441298569146</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1564868439405843</v>
+        <v>0.1552669202924575</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2053404116651396</v>
+        <v>0.2051208055711758</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>340</v>
@@ -784,19 +784,19 @@
         <v>355647</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>323173</v>
+        <v>324341</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>390697</v>
+        <v>392827</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2040184555613255</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1853894582921816</v>
+        <v>0.1860593072860598</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2241250393371221</v>
+        <v>0.2253468037641313</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>574906</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>550442</v>
+        <v>552114</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>597521</v>
+        <v>599604</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7642664077484659</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7317454655569334</v>
+        <v>0.7339672693807983</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.794330854570751</v>
+        <v>0.7970997170697921</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>726</v>
@@ -834,19 +834,19 @@
         <v>812658</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>787491</v>
+        <v>787709</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>835904</v>
+        <v>837113</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8200558701430853</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7946595883348604</v>
+        <v>0.7948791944288243</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8435131560594162</v>
+        <v>0.8447330797075426</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1309</v>
@@ -855,19 +855,19 @@
         <v>1387564</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1352514</v>
+        <v>1350384</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1420038</v>
+        <v>1418870</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7959815444386744</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.775874960662878</v>
+        <v>0.7746531962358687</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8146105417078183</v>
+        <v>0.8139406927139401</v>
       </c>
     </row>
     <row r="6">
@@ -959,19 +959,19 @@
         <v>636220</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>596031</v>
+        <v>595443</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>681301</v>
+        <v>678833</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3078233700935639</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2883786638183276</v>
+        <v>0.2880940643749274</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3296349891470962</v>
+        <v>0.3284408288256638</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>550</v>
@@ -980,19 +980,19 @@
         <v>561776</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>525766</v>
+        <v>522236</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>608025</v>
+        <v>602522</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2839034830309393</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2657053117606852</v>
+        <v>0.2639211123176951</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3072761653099668</v>
+        <v>0.3044949939952041</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1150</v>
@@ -1001,19 +1001,19 @@
         <v>1197996</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1138257</v>
+        <v>1138671</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1250679</v>
+        <v>1259616</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2961238074749489</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2813572700799611</v>
+        <v>0.2814597200684966</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.309146115599689</v>
+        <v>0.311355199834602</v>
       </c>
     </row>
     <row r="8">
@@ -1030,19 +1030,19 @@
         <v>1430614</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1385533</v>
+        <v>1388001</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1470803</v>
+        <v>1471391</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6921766299064361</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6703650108529038</v>
+        <v>0.6715591711743362</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7116213361816724</v>
+        <v>0.7119059356250725</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1349</v>
@@ -1051,19 +1051,19 @@
         <v>1416981</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1370732</v>
+        <v>1376235</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1452991</v>
+        <v>1456521</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7160965169690606</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6927238346900332</v>
+        <v>0.6955050060047959</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7342946882393147</v>
+        <v>0.7360788876823048</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2692</v>
@@ -1072,19 +1072,19 @@
         <v>2847596</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2794913</v>
+        <v>2785976</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2907335</v>
+        <v>2906921</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7038761925250511</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.690853884400311</v>
+        <v>0.688644800165398</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7186427299200392</v>
+        <v>0.7185402799315034</v>
       </c>
     </row>
     <row r="9">
@@ -1176,19 +1176,19 @@
         <v>209764</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>187156</v>
+        <v>184391</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>231610</v>
+        <v>233700</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3849340198507649</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3434479665481879</v>
+        <v>0.3383724626371894</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4250241994632129</v>
+        <v>0.4288593310834701</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>183</v>
@@ -1197,19 +1197,19 @@
         <v>187630</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>165246</v>
+        <v>164537</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>210322</v>
+        <v>209739</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3436908893490114</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3026885880357916</v>
+        <v>0.301390079741273</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3852564365839186</v>
+        <v>0.384190010487897</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>373</v>
@@ -1218,19 +1218,19 @@
         <v>397393</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>362628</v>
+        <v>363268</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>429080</v>
+        <v>429295</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3642937066522062</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3324243099611921</v>
+        <v>0.3330105632392768</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3933411513518232</v>
+        <v>0.3935383908749209</v>
       </c>
     </row>
     <row r="11">
@@ -1247,19 +1247,19 @@
         <v>335170</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>313324</v>
+        <v>311234</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>357778</v>
+        <v>360543</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6150659801492351</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5749758005367865</v>
+        <v>0.5711406689165299</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.656552033451812</v>
+        <v>0.6616275373628102</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>340</v>
@@ -1268,19 +1268,19 @@
         <v>358296</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>335604</v>
+        <v>336187</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>380680</v>
+        <v>381389</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6563091106509886</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6147435634160813</v>
+        <v>0.615809989512103</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6973114119642083</v>
+        <v>0.6986099202587269</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>649</v>
@@ -1289,19 +1289,19 @@
         <v>693467</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>661780</v>
+        <v>661565</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>728232</v>
+        <v>727592</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6357062933477938</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6066588486481768</v>
+        <v>0.6064616091250792</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6675756900388079</v>
+        <v>0.6669894367607232</v>
       </c>
     </row>
     <row r="12">
@@ -1393,19 +1393,19 @@
         <v>1023310</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>971019</v>
+        <v>967698</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1078458</v>
+        <v>1078729</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3041943474153771</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2886500886642813</v>
+        <v>0.2876627691845127</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3205880882308123</v>
+        <v>0.3206686192494667</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>896</v>
@@ -1414,19 +1414,19 @@
         <v>927727</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>880104</v>
+        <v>876395</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>986605</v>
+        <v>980915</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2638839157508269</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2503380573320188</v>
+        <v>0.2492830678336453</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2806312898904667</v>
+        <v>0.27901300362428</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1863</v>
@@ -1435,19 +1435,19 @@
         <v>1951036</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1876754</v>
+        <v>1877362</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>2028278</v>
+        <v>2031246</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2835948118701827</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2727973450335743</v>
+        <v>0.2728858267668502</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2948223698824952</v>
+        <v>0.2952537341949669</v>
       </c>
     </row>
     <row r="14">
@@ -1464,19 +1464,19 @@
         <v>2340690</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2285542</v>
+        <v>2285271</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2392981</v>
+        <v>2396302</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6958056525846229</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6794119117691876</v>
+        <v>0.6793313807505332</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7113499113357185</v>
+        <v>0.7123372308154869</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2415</v>
@@ -1485,19 +1485,19 @@
         <v>2587935</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2529057</v>
+        <v>2534747</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2635558</v>
+        <v>2639267</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7361160842491731</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7193687101095333</v>
+        <v>0.7209869963757199</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7496619426679813</v>
+        <v>0.7507169321663547</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>4650</v>
@@ -1506,19 +1506,19 @@
         <v>4928626</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>4851384</v>
+        <v>4848416</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>5002908</v>
+        <v>5002300</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7164051881298173</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.705177630117504</v>
+        <v>0.7047462658050334</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7272026549664257</v>
+        <v>0.7271141732331501</v>
       </c>
     </row>
     <row r="15">
@@ -1849,19 +1849,19 @@
         <v>193206</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>169865</v>
+        <v>171525</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>217691</v>
+        <v>219314</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3387697545813617</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2978430822628708</v>
+        <v>0.3007538458697155</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3817019360197683</v>
+        <v>0.3845475287777781</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>349</v>
@@ -1870,19 +1870,19 @@
         <v>212265</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>192747</v>
+        <v>191673</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>231981</v>
+        <v>231016</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2622075677403959</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2380974588690365</v>
+        <v>0.2367708896875939</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2865627374778989</v>
+        <v>0.2853702642906465</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>557</v>
@@ -1891,19 +1891,19 @@
         <v>405471</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>375333</v>
+        <v>377346</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>437445</v>
+        <v>438343</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2938522121738779</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2720109130582425</v>
+        <v>0.2734698251143747</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3170247742503297</v>
+        <v>0.3176751327434018</v>
       </c>
     </row>
     <row r="5">
@@ -1920,19 +1920,19 @@
         <v>377111</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>352626</v>
+        <v>351003</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>400452</v>
+        <v>398792</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6612302454186383</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.618298063980232</v>
+        <v>0.6154524712222217</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7021569177371293</v>
+        <v>0.6992461541302846</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1053</v>
@@ -1941,19 +1941,19 @@
         <v>597264</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>577548</v>
+        <v>578513</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>616782</v>
+        <v>617856</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.737792432259604</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7134372625221012</v>
+        <v>0.7146297357093535</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7619025411309635</v>
+        <v>0.7632291103124061</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1526</v>
@@ -1962,19 +1962,19 @@
         <v>974375</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>942401</v>
+        <v>941503</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1004513</v>
+        <v>1002500</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.7061477878261221</v>
+        <v>0.7061477878261222</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6829752257496703</v>
+        <v>0.6823248672565982</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7279890869417577</v>
+        <v>0.7265301748856254</v>
       </c>
     </row>
     <row r="6">
@@ -2066,19 +2066,19 @@
         <v>1095798</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1040024</v>
+        <v>1043387</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1147603</v>
+        <v>1150067</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.4917251717267096</v>
+        <v>0.4917251717267095</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.466697068926082</v>
+        <v>0.468206099513697</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.514971861766061</v>
+        <v>0.5160774981846071</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1233</v>
@@ -2087,19 +2087,19 @@
         <v>991082</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>948114</v>
+        <v>947007</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>1033697</v>
+        <v>1035522</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.45789710850784</v>
+        <v>0.4578971085078401</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4380450061946452</v>
+        <v>0.4375334520526091</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4775859958395211</v>
+        <v>0.4784290580552237</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>2137</v>
@@ -2108,19 +2108,19 @@
         <v>2086880</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2020362</v>
+        <v>2022954</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>2161698</v>
+        <v>2160840</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4750577728471262</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4599156179741025</v>
+        <v>0.4605054675233229</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4920891753101151</v>
+        <v>0.4918938619995533</v>
       </c>
     </row>
     <row r="8">
@@ -2137,19 +2137,19 @@
         <v>1132679</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1080874</v>
+        <v>1078410</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1188453</v>
+        <v>1185090</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5082748282732904</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4850281382339389</v>
+        <v>0.4839225018153928</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.533302931073918</v>
+        <v>0.5317939004863028</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1678</v>
@@ -2158,19 +2158,19 @@
         <v>1173339</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1130724</v>
+        <v>1128899</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1216307</v>
+        <v>1217414</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.54210289149216</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5224140041604789</v>
+        <v>0.5215709419447763</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5619549938053545</v>
+        <v>0.5624665479473908</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2764</v>
@@ -2179,19 +2179,19 @@
         <v>2306018</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2231200</v>
+        <v>2232058</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2372536</v>
+        <v>2369944</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5249422271528739</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5079108246898847</v>
+        <v>0.5081061380004469</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5400843820258976</v>
+        <v>0.5394945324766771</v>
       </c>
     </row>
     <row r="9">
@@ -2283,19 +2283,19 @@
         <v>338246</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>309321</v>
+        <v>312141</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>366683</v>
+        <v>367803</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.475786397411098</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4350999741554577</v>
+        <v>0.4390658379965316</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5157866168611179</v>
+        <v>0.5173613306447509</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>433</v>
@@ -2304,19 +2304,19 @@
         <v>327067</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>303107</v>
+        <v>301562</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>352615</v>
+        <v>351614</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4463527651387035</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4136546733646406</v>
+        <v>0.4115466591727625</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4812185610228313</v>
+        <v>0.4798523142529506</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>734</v>
@@ -2325,19 +2325,19 @@
         <v>665313</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>626129</v>
+        <v>628246</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>708422</v>
+        <v>701410</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.4608470031925718</v>
+        <v>0.4608470031925719</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4337046702295138</v>
+        <v>0.4351716338015459</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4907071523678995</v>
+        <v>0.4858503773861204</v>
       </c>
     </row>
     <row r="11">
@@ -2354,19 +2354,19 @@
         <v>372674</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>344237</v>
+        <v>343117</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>401599</v>
+        <v>398779</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5242136025889019</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4842133831388823</v>
+        <v>0.4826386693552492</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5649000258445424</v>
+        <v>0.5609341620034682</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>568</v>
@@ -2375,19 +2375,19 @@
         <v>405687</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>380139</v>
+        <v>381140</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>429647</v>
+        <v>431192</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5536472348612966</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5187814389771689</v>
+        <v>0.5201476857470497</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5863453266353594</v>
+        <v>0.5884533408272384</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>947</v>
@@ -2396,19 +2396,19 @@
         <v>778362</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>735253</v>
+        <v>742265</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>817546</v>
+        <v>815429</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.5391529968074281</v>
+        <v>0.5391529968074282</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5092928476321004</v>
+        <v>0.5141496226138795</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5662953297704861</v>
+        <v>0.5648283661984541</v>
       </c>
     </row>
     <row r="12">
@@ -2500,19 +2500,19 @@
         <v>1627250</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1564878</v>
+        <v>1562389</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1698246</v>
+        <v>1693076</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.4636418905330461</v>
+        <v>0.463641890533046</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.445870528642879</v>
+        <v>0.4451612211964667</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4838702806549996</v>
+        <v>0.4823972255998594</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2015</v>
@@ -2521,19 +2521,19 @@
         <v>1530414</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1477937</v>
+        <v>1475341</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>1588138</v>
+        <v>1584755</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4128772163713297</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3987200769872002</v>
+        <v>0.3980195487872599</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4284503113450531</v>
+        <v>0.4275374955216793</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>3428</v>
@@ -2542,19 +2542,19 @@
         <v>3157664</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>3076977</v>
+        <v>3068275</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>3240812</v>
+        <v>3241279</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4375666783044871</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4263855887141865</v>
+        <v>0.4251797668461518</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4490887321797867</v>
+        <v>0.4491533916920937</v>
       </c>
     </row>
     <row r="14">
@@ -2571,19 +2571,19 @@
         <v>1882464</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1811468</v>
+        <v>1816638</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1944836</v>
+        <v>1947325</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.5363581094669539</v>
+        <v>0.5363581094669538</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5161297193450004</v>
+        <v>0.5176027744001406</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5541294713571211</v>
+        <v>0.5548387788035335</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3299</v>
@@ -2592,19 +2592,19 @@
         <v>2176290</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2118566</v>
+        <v>2121949</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2228767</v>
+        <v>2231363</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5871227836286703</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.571549688654947</v>
+        <v>0.5724625044783208</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6012799230127998</v>
+        <v>0.6019804512127401</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>5237</v>
@@ -2613,19 +2613,19 @@
         <v>4058754</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>3975606</v>
+        <v>3975139</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>4139441</v>
+        <v>4148143</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5624333216955129</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5509112678202134</v>
+        <v>0.5508466083079062</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5736144112858135</v>
+        <v>0.5748202331538481</v>
       </c>
     </row>
     <row r="15">
